--- a/CLEAN/JanuarySales2024_clean.xlsx
+++ b/CLEAN/JanuarySales2024_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0006556</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0006557</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0006558</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0006559</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -808,7 +808,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0006560</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -878,7 +878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0006561</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -948,7 +948,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0006562</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1022,7 +1022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0006563</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1096,7 +1096,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0006564</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1166,7 +1166,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0006565</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1236,7 +1236,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0006566</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0006567</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1376,7 +1376,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0006568</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1446,7 +1446,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0006569</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1516,7 +1516,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0006570</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1586,7 +1586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0006571</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1656,7 +1656,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0006572</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1726,7 +1726,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0006573</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1796,7 +1796,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0006574</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1866,7 +1866,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0006575</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1936,7 +1936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0006576</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2006,7 +2006,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0006577</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2076,7 +2076,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2150,7 +2150,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0006579</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2220,7 +2220,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0006580</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2290,7 +2290,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0006581</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2360,7 +2360,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0006582</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2430,7 +2430,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0006583</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2500,7 +2500,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0006584</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2574,7 +2574,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0006585</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2644,7 +2644,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0006586</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2714,7 +2714,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2784,7 +2784,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0006588</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2854,7 +2854,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0006589</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2924,7 +2924,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0006590</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2994,7 +2994,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0006591</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0006592</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3138,7 +3138,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0006593</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3208,7 +3208,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0006594</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3278,7 +3278,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0006595</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3348,7 +3348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0006596</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3418,7 +3418,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0006597</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3492,7 +3492,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0006598</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3562,7 +3562,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0006599</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3632,7 +3632,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0006600</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3706,7 +3706,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0006601</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3776,7 +3776,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0006602</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3846,7 +3846,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0006603</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3916,7 +3916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0006604</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3986,7 +3986,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0006605</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4056,7 +4056,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0006606</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4126,7 +4126,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0006607</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4196,7 +4196,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0006608</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4266,7 +4266,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0006609</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4336,7 +4336,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0006610</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4406,7 +4406,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0006611</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4476,7 +4476,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0006612</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4550,7 +4550,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0006613</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4620,7 +4620,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0006614</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4690,7 +4690,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0006615</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4760,7 +4760,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0006616</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4834,7 +4834,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0006617</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4904,7 +4904,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0006618</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4974,7 +4974,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0006619</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5044,7 +5044,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0006620</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5114,7 +5114,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0006621</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5184,7 +5184,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0006622</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5258,7 +5258,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0006623</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5328,7 +5328,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0006624</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5398,7 +5398,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0006625</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5468,7 +5468,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0006626</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5538,7 +5538,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0006627</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5608,7 +5608,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0006628</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5678,7 +5678,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0006629</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5748,7 +5748,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0006630</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5818,7 +5818,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0006631</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5888,7 +5888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0006632</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5958,7 +5958,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0006633</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6032,7 +6032,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0006634</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6106,7 +6106,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0006635</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6176,7 +6176,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0006636</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6246,7 +6246,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0006637</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6316,7 +6316,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0006638</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6386,7 +6386,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0006639</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6456,7 +6456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0006640</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6530,7 +6530,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0006641</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6600,7 +6600,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0006642</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6670,7 +6670,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0006643</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6744,7 +6744,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0006644</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6814,7 +6814,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0006645</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6884,7 +6884,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0006646</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6954,7 +6954,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0006647</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7024,7 +7024,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0006648</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7094,7 +7094,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0006649</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7164,7 +7164,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0006650</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7234,7 +7234,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0006651</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7304,7 +7304,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0006652</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7374,7 +7374,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0006653</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7444,7 +7444,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0006654</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7518,7 +7518,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0006655</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7588,7 +7588,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0006656</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7658,7 +7658,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0006657</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7728,7 +7728,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0006658</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7798,7 +7798,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0006659</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7868,7 +7868,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0006660</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7942,7 +7942,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0006661</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -8012,7 +8012,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0006662</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8082,7 +8082,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0006663</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8152,7 +8152,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0006664</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8222,7 +8222,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0006665</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8292,7 +8292,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0006666</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8362,7 +8362,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0006667</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8432,7 +8432,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0006668</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8502,7 +8502,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0006669</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8576,7 +8576,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0006670</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8646,7 +8646,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0006671</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8716,7 +8716,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0006672</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8786,7 +8786,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0006673</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8856,7 +8856,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0006674</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8926,7 +8926,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0006675</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8996,7 +8996,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0006676</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9066,7 +9066,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0006677</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9136,7 +9136,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9210,7 +9210,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0006679</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9280,7 +9280,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0006680</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9350,7 +9350,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0006681</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9420,7 +9420,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0006682</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9494,7 +9494,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0006683</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9564,7 +9564,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9634,7 +9634,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0006685</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9708,7 +9708,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0006686</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9782,7 +9782,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0006687</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9852,7 +9852,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0006688</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9922,7 +9922,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0006689</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9992,7 +9992,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0006690</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10062,7 +10062,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0006691</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10132,7 +10132,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0006692</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10206,7 +10206,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0006693</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10280,7 +10280,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0006694</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10350,7 +10350,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0006695</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10420,7 +10420,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0006696</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10490,7 +10490,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0006697</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10560,7 +10560,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0006698</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10630,7 +10630,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0006699</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10704,7 +10704,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0006700</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10774,7 +10774,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0006701</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10844,7 +10844,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0006702</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10914,7 +10914,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0006703</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10984,7 +10984,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0006704</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11054,7 +11054,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0006705</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11128,7 +11128,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0006706</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11198,7 +11198,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0006707</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11268,7 +11268,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0006708</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11342,7 +11342,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0006709</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11412,7 +11412,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0006710</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11482,7 +11482,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0006711</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11552,7 +11552,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0006712</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11622,7 +11622,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0006713</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11692,7 +11692,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0006714</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11762,7 +11762,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0006715</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11832,7 +11832,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0006716</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11902,7 +11902,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0006717</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11976,7 +11976,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0006718</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12046,7 +12046,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0006719</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12116,7 +12116,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0006720</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12186,7 +12186,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0006721</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12256,7 +12256,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0006722</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12326,7 +12326,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0006723</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12396,7 +12396,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0006724</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12466,7 +12466,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0006725</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12536,7 +12536,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0006726</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12610,7 +12610,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0006727</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12680,7 +12680,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0006728</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12750,7 +12750,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0006729</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12820,7 +12820,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0006730</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12890,7 +12890,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0006731</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12964,7 +12964,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0006732</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13038,7 +13038,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0006733</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13108,7 +13108,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0006734</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13178,7 +13178,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0006735</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13248,7 +13248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0006736</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13318,7 +13318,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0006737</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13388,7 +13388,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0006738</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13458,7 +13458,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0006739</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13528,7 +13528,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0006740</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13598,7 +13598,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0006741</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13668,7 +13668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0006742</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13738,7 +13738,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0006743</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13808,7 +13808,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0006744</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13878,7 +13878,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0006745</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13948,7 +13948,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0006746</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14018,7 +14018,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0006747</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14088,7 +14088,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0006748</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14158,7 +14158,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0006749</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14228,7 +14228,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0006750</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14298,7 +14298,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0006751</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14368,7 +14368,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0006752</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14438,7 +14438,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0006753</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14508,7 +14508,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0006754</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14578,7 +14578,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0006755</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14648,7 +14648,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0006756</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14718,7 +14718,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0006757</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14788,7 +14788,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0006758</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14858,7 +14858,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0006759</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14928,7 +14928,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0006760</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14998,7 +14998,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0006761</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15068,7 +15068,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0006762</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15138,7 +15138,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0006763</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15208,7 +15208,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0006764</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15282,7 +15282,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0006765</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15352,7 +15352,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0006766</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15422,7 +15422,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0006767</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15492,7 +15492,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0006768</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15562,7 +15562,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0006769</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15636,7 +15636,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0006770</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15706,7 +15706,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0006771</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15776,7 +15776,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0006772</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15850,7 +15850,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0006773</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15920,7 +15920,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0006774</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15994,7 +15994,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0006775</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16064,7 +16064,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0006776</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16134,7 +16134,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0006777</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16204,7 +16204,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0006778</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16274,7 +16274,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0006779</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16344,7 +16344,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0006780</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16414,7 +16414,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0006781</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16484,7 +16484,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0006782</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16554,7 +16554,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0006783</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16624,7 +16624,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0006784</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16694,7 +16694,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0006785</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16764,7 +16764,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0006786</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16834,7 +16834,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16904,7 +16904,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0006788</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16974,7 +16974,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0006789</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17044,7 +17044,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0006790</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17118,7 +17118,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0006791</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17188,7 +17188,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0006792</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17258,7 +17258,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0006793</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17328,7 +17328,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0006794</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17398,7 +17398,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0006795</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17468,7 +17468,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0006796</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17538,7 +17538,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0006797</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17612,7 +17612,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0006798</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17682,7 +17682,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0006799</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17752,7 +17752,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0006800</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17822,7 +17822,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0006801</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17892,7 +17892,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0006802</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17962,7 +17962,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0006803</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18032,7 +18032,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0006804</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18102,7 +18102,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0006805</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18172,7 +18172,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0006806</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18242,7 +18242,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0006807</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18312,7 +18312,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0006808</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18382,7 +18382,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0006809</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18452,7 +18452,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0006810</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18526,7 +18526,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0006811</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18596,7 +18596,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0006812</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18666,7 +18666,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0006813</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18736,7 +18736,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0006814</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18810,7 +18810,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0006815</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18880,7 +18880,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0006816</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18950,7 +18950,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0006817</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19020,7 +19020,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0006818</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19090,7 +19090,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0006819</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19160,7 +19160,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0006820</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19230,7 +19230,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0006821</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19300,7 +19300,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0006822</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19370,7 +19370,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0006823</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19440,7 +19440,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0006824</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19510,7 +19510,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0006825</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19580,7 +19580,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0006826</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19654,7 +19654,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0006827</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19724,7 +19724,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19794,7 +19794,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0006829</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19864,7 +19864,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0006830</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19934,7 +19934,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0006831</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -20004,7 +20004,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0006832</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20074,7 +20074,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0006833</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20144,7 +20144,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0006834</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20214,7 +20214,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0006835</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20284,7 +20284,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0006836</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20358,7 +20358,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0006837</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20428,7 +20428,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0006838</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20498,7 +20498,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0006839</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20568,7 +20568,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0006840</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20638,7 +20638,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0006841</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20708,7 +20708,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0006842</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20778,7 +20778,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0006843</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20852,7 +20852,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0006844</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20922,7 +20922,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0006845</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -20992,7 +20992,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0006846</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21062,7 +21062,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0006847</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21132,7 +21132,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0006848</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21206,7 +21206,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0006849</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21280,7 +21280,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0006850</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21350,7 +21350,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0006851</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21420,7 +21420,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0006852</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21490,7 +21490,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0006853</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21560,7 +21560,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0006854</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21630,7 +21630,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0006855</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21700,7 +21700,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0006856</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21770,7 +21770,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0006857</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21844,7 +21844,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0006858</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21914,7 +21914,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0006859</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21984,7 +21984,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0006860</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22058,7 +22058,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0006861</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22128,7 +22128,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0006862</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22198,7 +22198,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0006863</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22268,7 +22268,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0006864</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22338,7 +22338,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0006865</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22408,7 +22408,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0006866</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22478,7 +22478,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0006867</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22548,7 +22548,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0006868</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22618,7 +22618,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0006869</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22688,7 +22688,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0006870</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22758,7 +22758,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0006871</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22828,7 +22828,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0006872</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22902,7 +22902,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0006873</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22976,7 +22976,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23046,7 +23046,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0006875</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23116,7 +23116,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0006876</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23186,7 +23186,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0006877</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23256,7 +23256,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0006878</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23326,7 +23326,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0006879</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23396,7 +23396,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0006880</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23466,7 +23466,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0006881</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23536,7 +23536,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0006882</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23606,7 +23606,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0006883</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23676,7 +23676,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0006884</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23746,7 +23746,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0006885</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23816,7 +23816,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0006886</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23886,7 +23886,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0006887</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23956,7 +23956,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0006888</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24030,7 +24030,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0006889</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24104,7 +24104,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0006890</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24174,7 +24174,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0006891</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24244,7 +24244,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0006892</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24314,7 +24314,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0006893</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24384,7 +24384,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0006894</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24454,7 +24454,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0006895</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24524,7 +24524,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0006896</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24598,7 +24598,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0006897</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24668,7 +24668,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0006898</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24738,7 +24738,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0006899</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24808,7 +24808,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0006900</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24882,7 +24882,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0006901</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24956,7 +24956,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0006902</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25026,7 +25026,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0006903</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25096,7 +25096,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0006904</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25166,7 +25166,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0006905</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25236,7 +25236,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0006906</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25306,7 +25306,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0006907</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25376,7 +25376,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0006908</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25446,7 +25446,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0006909</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25516,7 +25516,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0006910</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25586,7 +25586,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0006911</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25656,7 +25656,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0006912</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25726,7 +25726,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0006913</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25800,7 +25800,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0006914</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25870,7 +25870,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0006915</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25940,7 +25940,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0006916</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -26014,7 +26014,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0006917</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26084,7 +26084,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0006918</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26154,7 +26154,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0006919</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26224,7 +26224,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0006920</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26298,7 +26298,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0006921</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26368,7 +26368,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0006922</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26438,7 +26438,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0006923</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26508,7 +26508,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0006924</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26582,7 +26582,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0006925</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26652,7 +26652,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0006926</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26726,7 +26726,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0006927</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26796,7 +26796,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0006928</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26866,7 +26866,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0006929</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26936,7 +26936,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0006930</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -27006,7 +27006,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0006931</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27080,7 +27080,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0006932</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27150,7 +27150,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0006933</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27220,7 +27220,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0006934</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27294,7 +27294,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0006935</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27364,7 +27364,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0006936</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27434,7 +27434,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0006937</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27504,7 +27504,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0006938</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27574,7 +27574,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0006939</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27644,7 +27644,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0006940</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27714,7 +27714,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0006941</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27784,7 +27784,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0006942</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27854,7 +27854,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0006943</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27924,7 +27924,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0006944</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -27994,7 +27994,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0006945</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28068,7 +28068,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0006946</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28138,7 +28138,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0006947</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28212,7 +28212,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0006948</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28282,7 +28282,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0006949</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28356,7 +28356,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0006950</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28430,7 +28430,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0006951</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28500,7 +28500,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0006952</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28570,7 +28570,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0006953</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28640,7 +28640,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28710,7 +28710,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0006955</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28780,7 +28780,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0006956</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28850,7 +28850,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0006957</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28920,7 +28920,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0006958</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -28990,7 +28990,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0006959</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29060,7 +29060,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0006960</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29130,7 +29130,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0006961</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29200,7 +29200,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0006962</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29270,7 +29270,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0006963</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29344,7 +29344,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0006964</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29414,7 +29414,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0006965</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29484,7 +29484,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0006966</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29554,7 +29554,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0006967</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29624,7 +29624,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0006968</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29694,7 +29694,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0006969</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29764,7 +29764,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0006970</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29834,7 +29834,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0006971</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29904,7 +29904,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0006972</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29974,7 +29974,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0006973</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30044,7 +30044,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0006974</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30114,7 +30114,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0006975</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30184,7 +30184,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0006976</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30254,7 +30254,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0006977</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30324,7 +30324,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0006978</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30394,7 +30394,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0006979</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30464,7 +30464,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0006980</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30534,7 +30534,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0006981</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30604,7 +30604,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0006982</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30674,7 +30674,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0006983</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30744,7 +30744,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0006984</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30814,7 +30814,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0006985</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30884,7 +30884,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0006986</t>
         </is>
       </c>
       <c r="B432" t="n">
